--- a/src/test/resources/Tests/PreTrialCaseCreation.xlsx
+++ b/src/test/resources/Tests/PreTrialCaseCreation.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Case_Creation" sheetId="2" r:id="rId1"/>
     <sheet name="Case_Creation_Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
   <si>
     <t>Script</t>
   </si>
@@ -38,36 +38,21 @@
     <t>username</t>
   </si>
   <si>
-    <t>login_UserName</t>
-  </si>
-  <si>
     <t>Enter User Name</t>
   </si>
   <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>login_Password</t>
-  </si>
-  <si>
     <t>Enter Password</t>
   </si>
   <si>
     <t>Click</t>
   </si>
   <si>
-    <t>login_loginbtn</t>
-  </si>
-  <si>
     <t>Click Login button</t>
   </si>
   <si>
-    <t>Home_AllTab</t>
-  </si>
-  <si>
-    <t>Click All Tab</t>
-  </si>
-  <si>
     <t>selectfromDropdown</t>
   </si>
   <si>
@@ -95,45 +80,15 @@
     <t>Object_Name</t>
   </si>
   <si>
-    <t>Home_AllTab_Objects</t>
-  </si>
-  <si>
     <t>Click Person Search</t>
   </si>
   <si>
     <t>PID</t>
   </si>
   <si>
-    <t>PersonSearch_PID</t>
-  </si>
-  <si>
-    <t>Enter PID</t>
-  </si>
-  <si>
-    <t>PersonSearch_Search</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
     <t>Records</t>
   </si>
   <si>
-    <t>PersonSearch_SelectRecord</t>
-  </si>
-  <si>
-    <t>Select No of Record</t>
-  </si>
-  <si>
-    <t>PersonSearch_Person</t>
-  </si>
-  <si>
-    <t>Verify Person Record is correct</t>
-  </si>
-  <si>
-    <t>Click on Person</t>
-  </si>
-  <si>
     <t>switch_To_Different_Window</t>
   </si>
   <si>
@@ -143,30 +98,18 @@
     <t>Switch to Person Window</t>
   </si>
   <si>
-    <t>Person_NewCasebutton</t>
-  </si>
-  <si>
     <t>Click New Case</t>
   </si>
   <si>
     <t>County</t>
   </si>
   <si>
-    <t>Case_County</t>
-  </si>
-  <si>
     <t>Select County</t>
   </si>
   <si>
-    <t>Case_Save</t>
-  </si>
-  <si>
     <t>verifyCreation</t>
   </si>
   <si>
-    <t>Case_Id</t>
-  </si>
-  <si>
     <t>Verify Case creation</t>
   </si>
   <si>
@@ -198,12 +141,63 @@
   </si>
   <si>
     <t>0000000688</t>
+  </si>
+  <si>
+    <t>Login_Username_Text</t>
+  </si>
+  <si>
+    <t>Login_Password_Text</t>
+  </si>
+  <si>
+    <t>Login_Login_Button</t>
+  </si>
+  <si>
+    <t>Home_Alltabs_Tab</t>
+  </si>
+  <si>
+    <t>Click All Tabs  Tab</t>
+  </si>
+  <si>
+    <t>Alltabs_WebElements_Links</t>
+  </si>
+  <si>
+    <t>PersonSearch_ReferenceNumber_Text</t>
+  </si>
+  <si>
+    <t>Enter PID/ Reference number</t>
+  </si>
+  <si>
+    <t>PersonSearch_Search_Button</t>
+  </si>
+  <si>
+    <t>click search button</t>
+  </si>
+  <si>
+    <t>PersonSearch_View_Link</t>
+  </si>
+  <si>
+    <t>Verify Person's PID</t>
+  </si>
+  <si>
+    <t>Click on view, person searched for</t>
+  </si>
+  <si>
+    <t>Persons_NewCase_Button</t>
+  </si>
+  <si>
+    <t>Cases_County_List</t>
+  </si>
+  <si>
+    <t>Cases_Save_Button</t>
+  </si>
+  <si>
+    <t>Cases_CaseId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -622,17 +616,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.85546875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
@@ -655,7 +651,7 @@
     </row>
     <row r="2" spans="1:5" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -664,245 +660,228 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12.75">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12.75">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75">
       <c r="A11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75">
       <c r="A12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D13" s="4" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75">
       <c r="A15" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="12.75">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -915,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
@@ -933,31 +912,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
@@ -965,28 +944,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -994,28 +973,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/Tests/PreTrialCaseCreation.xlsx
+++ b/src/test/resources/Tests/PreTrialCaseCreation.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Case_Creation" sheetId="2" r:id="rId1"/>
     <sheet name="Case_Creation_Data" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -122,9 +122,6 @@
     <t>exp_msg</t>
   </si>
   <si>
-    <t>0000000689</t>
-  </si>
-  <si>
     <t>100</t>
   </si>
   <si>
@@ -192,12 +189,15 @@
   </si>
   <si>
     <t>Cases_CaseId</t>
+  </si>
+  <si>
+    <t>824</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -618,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15"/>
@@ -660,7 +660,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>7</v>
@@ -677,7 +677,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>9</v>
@@ -692,7 +692,7 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>11</v>
@@ -707,10 +707,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75">
@@ -724,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>21</v>
@@ -741,10 +741,10 @@
         <v>22</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75">
@@ -756,10 +756,10 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75">
@@ -773,10 +773,10 @@
         <v>22</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75">
@@ -788,10 +788,10 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75">
@@ -818,7 +818,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>27</v>
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>29</v>
@@ -850,7 +850,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>13</v>
@@ -865,7 +865,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>31</v>
@@ -894,7 +894,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
   <cols>
@@ -950,22 +952,22 @@
         <v>17</v>
       </c>
       <c r="D2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -979,22 +981,22 @@
         <v>17</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
